--- a/gielda.xlsx
+++ b/gielda.xlsx
@@ -446,110 +446,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>htb</t>
+          <t>dam</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>362.7</t>
+          <t>0.470</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+3.8(+1.06%)</t>
+          <t>(+1520.69%)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12 280</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>bja</t>
+          <t>bmc</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>362.7</t>
+          <t>2.040</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+3.8(+1.06%)</t>
+          <t>+0.040(+2.00%)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12 280</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ygw</t>
+          <t>vin</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>362.7</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+3.8(+1.06%)</t>
+          <t>+0.04(+0.84%)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12 280</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>usj</t>
+          <t>pbx</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>362.7</t>
+          <t>15.80</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>+3.8(+1.06%)</t>
+          <t>+0.20(+1.28%)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12 280</t>
+          <t>55</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fxp</t>
+          <t>psw</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>362.7</t>
+          <t>12.80</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>+3.8(+1.06%)</t>
+          <t>+0.05(+0.39%)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12 280</t>
+          <t>7</t>
         </is>
       </c>
     </row>
